--- a/attendance_2025-10-28.xlsx
+++ b/attendance_2025-10-28.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,6 +479,11 @@
           <t>Photo</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PhotoPath</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="140" customHeight="1">
       <c r="A2" t="inlineStr">
@@ -492,10 +498,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-28 00:08:10 CDT</t>
+          <t>2025-10-28 00:21:08 CDT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-10-28/151579_002108.png</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/attendance_2025-10-28.xlsx
+++ b/attendance_2025-10-28.xlsx
@@ -147,6 +147,174 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -443,13 +611,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
@@ -488,23 +656,155 @@
     <row r="2" ht="140" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>155576</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shreya Rajavel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-10-28 11:09:55 CDT</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-10-28/155576_110955.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="140" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>324170</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Abhiram Mora</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-10-28 11:34:43 CDT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-10-28/324170_113443.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="140" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>154554</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asrith Sampath</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-10-28 11:44:18 CDT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-10-28/154554_114418.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="140" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>309213</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raza Inam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-10-28 11:44:24 CDT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-10-28/309213_114424.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="140" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>306636</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bhuvan Teja Mantrala</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-10-28 16:28:30 CDT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-10-28/306636_162830.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="140" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>150247</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brati Dhakal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-10-28 16:28:43 CDT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-10-28/150247_162843.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="140" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>151579</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Varun Bhadurgatte Nagaraj</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-10-28 00:21:08 CDT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-10-28/151579_002108.png</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-10-28 18:51:14 CDT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-10-28/151579_185114.png</t>
         </is>
       </c>
     </row>
